--- a/example-results/Ki67.xlsx
+++ b/example-results/Ki67.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yi/Documents/GitHub/progmetasa-r/example-results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouy\Documents\GitHub-Bios\prgmetasa-r\example-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8AE1F-20F6-694C-A941-760C3F838103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC924CD-A988-4B17-9F49-F7A7E6476B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="-20600" windowWidth="27260" windowHeight="16440" activeTab="4" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="HR" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,8 +238,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,12 +559,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -576,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -596,7 +604,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -616,7 +624,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -636,7 +644,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +664,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -676,7 +684,7 @@
         <v>122.36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -696,7 +704,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -716,7 +724,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -736,7 +744,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -756,7 +764,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -776,7 +784,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -796,7 +804,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -816,7 +824,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -836,7 +844,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -856,7 +864,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -876,7 +884,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -896,7 +904,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -916,7 +924,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -936,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -956,7 +964,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -976,7 +984,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1047,9 +1055,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1380,11 +1388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C6802D-D62A-2949-A902-1C03EC28C391}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172:D183"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1489,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1604,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1627,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1650,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +1742,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1765,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1775,7 +1788,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1834,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1949,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +1972,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +2087,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2156,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2271,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2350,7 +2363,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2432,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2603,7 +2616,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2649,7 +2662,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2800,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2869,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2879,7 +2892,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2984,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3076,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3155,7 +3168,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3214,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3260,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +3306,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3329,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3352,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -3385,7 +3398,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -3431,7 +3444,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3467,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -3500,7 +3513,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3523,7 +3536,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3615,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3638,7 +3651,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3661,7 +3674,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3684,7 +3697,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3914,7 +3927,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3937,7 +3950,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3983,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -4006,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4075,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4121,7 +4134,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4226,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4236,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -4328,7 +4341,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -4374,7 +4387,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4397,7 +4410,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -4443,7 +4456,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -4466,7 +4479,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -4489,7 +4502,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -4627,7 +4640,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4673,7 +4686,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4696,7 +4709,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -4719,7 +4732,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -4742,7 +4755,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +4778,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -4811,7 +4824,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -4834,7 +4847,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -4880,7 +4893,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -4926,7 +4939,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -4949,7 +4962,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -4972,7 +4985,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -4995,7 +5008,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -5018,7 +5031,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -5041,11 +5054,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>28</v>
       </c>
       <c r="C160">
@@ -5064,11 +5077,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>28</v>
       </c>
       <c r="C161">
@@ -5087,11 +5100,11 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>28</v>
       </c>
       <c r="C162">
@@ -5110,11 +5123,11 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>28</v>
       </c>
       <c r="C163">
@@ -5133,11 +5146,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>28</v>
       </c>
       <c r="C164">
@@ -5156,11 +5169,11 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>28</v>
       </c>
       <c r="C165">
@@ -5179,11 +5192,11 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>28</v>
       </c>
       <c r="C166">
@@ -5202,11 +5215,11 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>28</v>
       </c>
       <c r="C167">
@@ -5225,11 +5238,11 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>28</v>
       </c>
       <c r="C168">
@@ -5248,11 +5261,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>28</v>
       </c>
       <c r="C169">
@@ -5271,11 +5284,11 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>28</v>
       </c>
       <c r="C170">
@@ -5294,11 +5307,11 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>28</v>
       </c>
       <c r="C171">
@@ -5317,7 +5330,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -5327,7 +5340,7 @@
       <c r="C172">
         <v>6</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>61</v>
       </c>
       <c r="E172">
@@ -5340,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -5350,7 +5363,7 @@
       <c r="C173">
         <v>12</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>61</v>
       </c>
       <c r="E173">
@@ -5363,7 +5376,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -5373,7 +5386,7 @@
       <c r="C174">
         <v>18</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>61</v>
       </c>
       <c r="E174">
@@ -5386,7 +5399,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -5396,7 +5409,7 @@
       <c r="C175">
         <v>24</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>61</v>
       </c>
       <c r="E175">
@@ -5409,7 +5422,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -5419,7 +5432,7 @@
       <c r="C176">
         <v>30</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>61</v>
       </c>
       <c r="E176">
@@ -5432,7 +5445,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -5442,7 +5455,7 @@
       <c r="C177">
         <v>36</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>61</v>
       </c>
       <c r="E177">
@@ -5455,7 +5468,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -5465,7 +5478,7 @@
       <c r="C178">
         <v>42</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>61</v>
       </c>
       <c r="E178">
@@ -5478,7 +5491,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -5488,7 +5501,7 @@
       <c r="C179">
         <v>48</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>61</v>
       </c>
       <c r="E179">
@@ -5501,7 +5514,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5524,7 @@
       <c r="C180">
         <v>54</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>61</v>
       </c>
       <c r="E180">
@@ -5524,7 +5537,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -5534,7 +5547,7 @@
       <c r="C181">
         <v>60</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>61</v>
       </c>
       <c r="E181">
@@ -5547,7 +5560,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -5557,7 +5570,7 @@
       <c r="C182">
         <v>66</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>61</v>
       </c>
       <c r="E182">
@@ -5570,7 +5583,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -5580,7 +5593,7 @@
       <c r="C183">
         <v>72</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>61</v>
       </c>
       <c r="E183">
@@ -5593,7 +5606,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -5662,7 +5675,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -5685,7 +5698,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -5708,7 +5721,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -5731,7 +5744,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5767,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -5777,7 +5790,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -5800,7 +5813,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -5846,7 +5859,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -5892,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -5915,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -5938,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -5961,7 +5974,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -5984,7 +5997,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -6007,7 +6020,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6030,7 +6043,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -6053,7 +6066,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -6076,7 +6089,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -6122,7 +6135,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6168,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -6191,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -6237,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -6260,7 +6273,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -6283,7 +6296,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -6306,7 +6319,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -6329,7 +6342,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -6352,7 +6365,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -6421,7 +6434,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -6444,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -6467,7 +6480,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -6513,7 +6526,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -6536,7 +6549,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -6559,7 +6572,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -6605,7 +6618,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -6628,7 +6641,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -6651,7 +6664,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6687,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -6697,7 +6710,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6733,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -6743,7 +6756,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6779,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -6789,7 +6802,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -6812,7 +6825,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -6835,7 +6848,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -6881,7 +6894,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -6904,7 +6917,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -6927,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -6950,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -6973,7 +6986,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -7019,7 +7032,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -7042,7 +7055,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -7065,7 +7078,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -7111,7 +7124,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -7134,7 +7147,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -7157,7 +7170,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -7180,7 +7193,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -7203,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -7226,7 +7239,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -7249,7 +7262,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -7272,7 +7285,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -7295,7 +7308,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -7318,7 +7331,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -7341,7 +7354,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -7364,7 +7377,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -7387,7 +7400,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -7419,14 +7432,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40941E-40A7-294D-8E59-2512CC8ADAA7}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160:B171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -7449,7 +7464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7487,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7510,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7518,7 +7533,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7587,7 +7602,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7610,7 +7625,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7633,7 +7648,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -7679,7 +7694,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7702,7 +7717,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -7725,7 +7740,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7748,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -7771,7 +7786,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +7809,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7817,7 +7832,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7840,7 +7855,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7863,7 +7878,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7886,7 +7901,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7909,7 +7924,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7932,7 +7947,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7955,7 +7970,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7978,7 +7993,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -8001,7 +8016,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -8024,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8047,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -8070,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8116,7 +8131,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -8139,7 +8154,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8162,7 +8177,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8185,7 +8200,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8208,7 +8223,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -8231,7 +8246,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -8254,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -8277,7 +8292,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -8300,7 +8315,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8323,7 +8338,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -8346,7 +8361,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8384,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -8392,7 +8407,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -8415,7 +8430,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -8438,7 +8453,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -8461,7 +8476,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -8484,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -8507,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -8530,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -8553,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -8599,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -8622,7 +8637,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -8645,7 +8660,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -8668,7 +8683,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8691,7 +8706,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -8714,7 +8729,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8737,7 +8752,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8760,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8783,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8806,7 +8821,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8829,7 +8844,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8852,7 +8867,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8875,7 +8890,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8898,7 +8913,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8921,7 +8936,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8944,7 +8959,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8967,7 +8982,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -9013,7 +9028,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -9036,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -9059,7 +9074,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -9082,7 +9097,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -9105,7 +9120,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -9128,7 +9143,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -9151,7 +9166,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -9174,7 +9189,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -9197,7 +9212,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -9220,7 +9235,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -9243,7 +9258,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -9266,7 +9281,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -9289,7 +9304,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -9312,7 +9327,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -9335,7 +9350,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -9358,7 +9373,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -9381,7 +9396,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -9404,7 +9419,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -9427,7 +9442,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -9450,7 +9465,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9473,7 +9488,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -9519,7 +9534,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -9542,7 +9557,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -9565,7 +9580,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -9588,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -9611,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -9634,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -9657,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -9680,7 +9695,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -9703,7 +9718,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -9726,7 +9741,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -9749,7 +9764,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -9772,7 +9787,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -9795,7 +9810,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -9818,7 +9833,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -9841,7 +9856,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -9864,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -9887,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -9910,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -9933,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -9956,7 +9971,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -9979,7 +9994,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -10002,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -10025,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -10048,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -10071,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -10094,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -10117,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -10140,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -10163,7 +10178,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -10186,7 +10201,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -10209,7 +10224,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -10232,7 +10247,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -10255,7 +10270,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -10278,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -10324,7 +10339,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -10347,7 +10362,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -10370,7 +10385,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -10393,7 +10408,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -10416,7 +10431,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10439,7 +10454,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -10485,7 +10500,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -10508,7 +10523,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -10531,7 +10546,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10554,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -10600,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -10623,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -10646,7 +10661,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -10669,7 +10684,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -10692,7 +10707,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -10715,7 +10730,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -10738,7 +10753,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -10761,7 +10776,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -10784,7 +10799,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -10807,7 +10822,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -10830,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -10853,7 +10868,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -10876,7 +10891,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -10899,7 +10914,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -10922,7 +10937,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +10960,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -10968,7 +10983,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -10991,7 +11006,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -11014,7 +11029,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -11037,7 +11052,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -11060,7 +11075,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -11083,11 +11098,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>27</v>
       </c>
       <c r="C160">
@@ -11106,11 +11121,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>27</v>
       </c>
       <c r="C161">
@@ -11129,11 +11144,11 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>27</v>
       </c>
       <c r="C162">
@@ -11152,11 +11167,11 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>27</v>
       </c>
       <c r="C163">
@@ -11175,11 +11190,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>27</v>
       </c>
       <c r="C164">
@@ -11198,11 +11213,11 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>27</v>
       </c>
       <c r="C165">
@@ -11221,11 +11236,11 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>27</v>
       </c>
       <c r="C166">
@@ -11244,11 +11259,11 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>27</v>
       </c>
       <c r="C167">
@@ -11267,11 +11282,11 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>27</v>
       </c>
       <c r="C168">
@@ -11290,11 +11305,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>27</v>
       </c>
       <c r="C169">
@@ -11313,11 +11328,11 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>27</v>
       </c>
       <c r="C170">
@@ -11336,11 +11351,11 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>27</v>
       </c>
       <c r="C171">
@@ -11359,7 +11374,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -11369,7 +11384,7 @@
       <c r="C172">
         <v>6</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>94</v>
       </c>
       <c r="E172">
@@ -11382,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -11392,7 +11407,7 @@
       <c r="C173">
         <v>12</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>94</v>
       </c>
       <c r="E173">
@@ -11405,7 +11420,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -11415,7 +11430,7 @@
       <c r="C174">
         <v>18</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>94</v>
       </c>
       <c r="E174">
@@ -11428,7 +11443,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -11438,7 +11453,7 @@
       <c r="C175">
         <v>24</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>94</v>
       </c>
       <c r="E175">
@@ -11451,7 +11466,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -11461,7 +11476,7 @@
       <c r="C176">
         <v>30</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>94</v>
       </c>
       <c r="E176">
@@ -11474,7 +11489,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -11484,7 +11499,7 @@
       <c r="C177">
         <v>36</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>94</v>
       </c>
       <c r="E177">
@@ -11497,7 +11512,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -11507,7 +11522,7 @@
       <c r="C178">
         <v>42</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>94</v>
       </c>
       <c r="E178">
@@ -11520,7 +11535,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -11530,7 +11545,7 @@
       <c r="C179">
         <v>48</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>94</v>
       </c>
       <c r="E179">
@@ -11543,7 +11558,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -11553,7 +11568,7 @@
       <c r="C180">
         <v>54</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>94</v>
       </c>
       <c r="E180">
@@ -11566,7 +11581,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -11576,7 +11591,7 @@
       <c r="C181">
         <v>60</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>94</v>
       </c>
       <c r="E181">
@@ -11589,7 +11604,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11599,7 +11614,7 @@
       <c r="C182">
         <v>66</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>94</v>
       </c>
       <c r="E182">
@@ -11612,7 +11627,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -11622,7 +11637,7 @@
       <c r="C183">
         <v>72</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>94</v>
       </c>
       <c r="E183">
@@ -11635,7 +11650,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -11658,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -11681,7 +11696,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -11704,7 +11719,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -11727,7 +11742,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -11750,7 +11765,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -11773,7 +11788,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -11796,7 +11811,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -11819,7 +11834,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -11842,7 +11857,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -11865,7 +11880,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -11888,7 +11903,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -11911,7 +11926,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -11957,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -12003,7 +12018,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -12026,7 +12041,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -12049,7 +12064,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -12072,7 +12087,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -12095,7 +12110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -12118,7 +12133,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -12141,7 +12156,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -12164,7 +12179,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -12187,7 +12202,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -12210,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -12233,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -12256,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -12279,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -12302,7 +12317,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -12325,7 +12340,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -12348,7 +12363,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -12371,7 +12386,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -12394,7 +12409,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -12417,7 +12432,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -12440,7 +12455,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -12463,7 +12478,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -12486,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -12509,7 +12524,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -12532,7 +12547,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -12555,7 +12570,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -12578,7 +12593,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -12601,7 +12616,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -12624,7 +12639,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -12647,7 +12662,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -12670,7 +12685,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -12693,7 +12708,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -12716,7 +12731,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -12739,7 +12754,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -12762,7 +12777,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -12785,7 +12800,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -12808,7 +12823,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -12831,7 +12846,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -12854,7 +12869,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -12877,7 +12892,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -12900,7 +12915,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -12923,7 +12938,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -12946,7 +12961,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -12969,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -12992,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -13015,7 +13030,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -13038,7 +13053,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -13061,7 +13076,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -13084,7 +13099,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -13107,7 +13122,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -13130,7 +13145,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -13153,7 +13168,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -13176,7 +13191,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -13199,7 +13214,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -13222,7 +13237,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -13245,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -13268,7 +13283,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -13291,7 +13306,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -13314,7 +13329,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -13337,7 +13352,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -13360,7 +13375,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -13383,7 +13398,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -13406,7 +13421,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -13429,7 +13444,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -13454,6 +13469,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13461,11 +13477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -13494,7 +13512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -13523,7 +13541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -13549,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -13575,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13604,7 +13622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13633,7 +13651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13662,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13691,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13720,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -13746,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -13766,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13795,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -13821,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -13847,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -13873,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -13902,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -13931,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -13957,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -13986,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -14012,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -14038,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -14064,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -14093,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -14151,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -14180,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -14206,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -14232,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -14261,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -14287,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -14313,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -14342,7 +14360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -14371,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -14400,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -14429,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -14458,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -14487,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -14516,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>

--- a/example-results/Ki67.xlsx
+++ b/example-results/Ki67.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouy\Documents\GitHub-Bios\prgmetasa-r\example-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yi/Documents/GitHub-Biostat/prgmetasa-r/example-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC924CD-A988-4B17-9F49-F7A7E6476B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C23769-38AF-3547-BAE0-293FB7ADBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
+    <workbookView xWindow="7420" yWindow="980" windowWidth="28040" windowHeight="15720" activeTab="4" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="HR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="OS0" sheetId="2" r:id="rId4"/>
     <sheet name="HR_all" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HR_all!$J$1:$J$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="54">
   <si>
     <t>cutoff</t>
   </si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>author</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -559,12 +565,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -584,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +610,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -624,7 +630,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -644,7 +650,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -664,7 +670,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -684,7 +690,7 @@
         <v>122.36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -704,7 +710,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -724,7 +730,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -744,7 +750,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -764,7 +770,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -784,7 +790,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -804,7 +810,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -824,7 +830,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -844,7 +850,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -864,7 +870,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -884,7 +890,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -904,7 +910,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -924,7 +930,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -944,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -964,7 +970,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -984,7 +990,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1055,9 +1061,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1388,16 +1394,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C6802D-D62A-2949-A902-1C03EC28C391}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="D172" sqref="D172:D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -5284,7 +5290,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -5376,7 +5382,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -5399,7 +5405,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -5468,7 +5474,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -5629,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -5997,7 +6003,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -6457,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -6549,7 +6555,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -6986,7 +6992,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -7032,7 +7038,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -7436,12 +7442,12 @@
       <selection activeCell="B160" sqref="B160:B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7533,7 +7539,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7648,7 +7654,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7671,7 +7677,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7717,7 +7723,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7809,7 +7815,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7832,7 +7838,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7884,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7901,7 +7907,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7924,7 +7930,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +8022,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -8108,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -8154,7 +8160,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -8246,7 +8252,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -8292,7 +8298,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8338,7 +8344,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -8453,7 +8459,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -8499,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -8591,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -8614,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -8637,7 +8643,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -8683,7 +8689,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8850,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8867,7 +8873,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -9005,7 +9011,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -9028,7 +9034,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -9166,7 +9172,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -9189,7 +9195,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -9281,7 +9287,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -9327,7 +9333,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -9442,7 +9448,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -9511,7 +9517,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -9534,7 +9540,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -9603,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -9626,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -9718,7 +9724,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -9764,7 +9770,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -9787,7 +9793,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -9810,7 +9816,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -9856,7 +9862,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -9879,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -9971,7 +9977,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -9994,7 +10000,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -10017,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -10040,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -10063,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -10086,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -10109,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -10132,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -10155,7 +10161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -10201,7 +10207,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -10270,7 +10276,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -10339,7 +10345,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -10362,7 +10368,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -10477,7 +10483,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -10500,7 +10506,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -10546,7 +10552,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10569,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -10592,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -10638,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -10707,7 +10713,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -10730,7 +10736,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -10753,7 +10759,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -10845,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -10868,7 +10874,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -10891,7 +10897,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -10914,7 +10920,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -10937,7 +10943,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -10960,7 +10966,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -10983,7 +10989,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -11029,7 +11035,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -11052,7 +11058,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -11075,7 +11081,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -11098,7 +11104,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -11144,7 +11150,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -11190,7 +11196,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -11213,7 +11219,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -11236,7 +11242,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -11259,7 +11265,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -11282,7 +11288,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -11305,7 +11311,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -11328,7 +11334,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -11374,7 +11380,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -11397,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -11443,7 +11449,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -11466,7 +11472,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -11489,7 +11495,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -11512,7 +11518,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -11535,7 +11541,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -11558,7 +11564,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -11581,7 +11587,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -11604,7 +11610,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -11696,7 +11702,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -11719,7 +11725,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -11742,7 +11748,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -11765,7 +11771,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -11788,7 +11794,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -11811,7 +11817,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -11857,7 +11863,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -11926,7 +11932,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -11995,7 +12001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -12041,7 +12047,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -12064,7 +12070,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -12087,7 +12093,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -12110,7 +12116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -12133,7 +12139,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -12156,7 +12162,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -12179,7 +12185,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -12202,7 +12208,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -12225,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -12294,7 +12300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -12317,7 +12323,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -12340,7 +12346,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -12386,7 +12392,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -12409,7 +12415,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -12432,7 +12438,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -12455,7 +12461,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -12478,7 +12484,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -12501,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -12570,7 +12576,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -12616,7 +12622,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -12639,7 +12645,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -12662,7 +12668,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -12685,7 +12691,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -12731,7 +12737,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -12754,7 +12760,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -12777,7 +12783,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -12800,7 +12806,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -12823,7 +12829,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -12869,7 +12875,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -12892,7 +12898,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -12915,7 +12921,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -12938,7 +12944,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -12961,7 +12967,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -12984,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -13007,7 +13013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -13053,7 +13059,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -13076,7 +13082,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -13099,7 +13105,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -13145,7 +13151,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -13168,7 +13174,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -13214,7 +13220,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -13237,7 +13243,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -13283,7 +13289,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -13306,7 +13312,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -13329,7 +13335,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -13352,7 +13358,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -13375,7 +13381,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -13398,7 +13404,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -13421,7 +13427,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -13444,7 +13450,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -13475,15 +13481,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -13509,10 +13515,13 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -13538,16 +13547,23 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G2+H2</f>
+        <v>107</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
       <c r="D3">
         <v>2.4700000000000002</v>
       </c>
@@ -13564,16 +13580,23 @@
         <v>87</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I39" si="0">G3+H3</f>
+        <v>150</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
       <c r="D4">
         <v>1.19</v>
       </c>
@@ -13590,10 +13613,14 @@
         <v>504</v>
       </c>
       <c r="I4">
+        <f t="shared" si="0"/>
+        <v>674</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13619,10 +13646,14 @@
         <v>122</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13648,10 +13679,14 @@
         <v>45</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13677,10 +13712,14 @@
         <v>35</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13706,10 +13745,14 @@
         <v>34</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13735,16 +13778,23 @@
         <v>62</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>0.75</v>
+      </c>
       <c r="D10">
         <v>2.58</v>
       </c>
@@ -13761,16 +13811,23 @@
         <v>82</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
       <c r="D11">
         <v>3.18</v>
       </c>
@@ -13781,10 +13838,13 @@
         <v>6.65</v>
       </c>
       <c r="I11">
+        <v>221</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13810,16 +13870,23 @@
         <v>56</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
       <c r="D13">
         <v>0.81</v>
       </c>
@@ -13836,16 +13903,23 @@
         <v>33</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
       <c r="D14">
         <v>1.3</v>
       </c>
@@ -13862,16 +13936,23 @@
         <v>75</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>0.35</v>
+      </c>
       <c r="D15">
         <v>3.29</v>
       </c>
@@ -13888,10 +13969,14 @@
         <v>78</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -13917,10 +14002,14 @@
         <v>168</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -13946,16 +14035,23 @@
         <v>64</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="D18">
         <v>1.76</v>
       </c>
@@ -13972,10 +14068,14 @@
         <v>384</v>
       </c>
       <c r="I18">
+        <f t="shared" si="0"/>
+        <v>773</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -14001,16 +14101,23 @@
         <v>44</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
       <c r="D20">
         <v>1.82</v>
       </c>
@@ -14027,16 +14134,23 @@
         <v>70</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
       <c r="D21">
         <v>2.56</v>
       </c>
@@ -14053,16 +14167,23 @@
         <v>230</v>
       </c>
       <c r="I21">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>0.08</v>
+      </c>
       <c r="D22">
         <v>1.37</v>
       </c>
@@ -14079,10 +14200,14 @@
         <v>70</v>
       </c>
       <c r="I22">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -14108,10 +14233,14 @@
         <v>88</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14137,10 +14266,14 @@
         <v>103</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -14166,10 +14299,14 @@
         <v>159</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -14195,16 +14332,23 @@
         <v>127</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
       <c r="D27">
         <v>2.39</v>
       </c>
@@ -14221,16 +14365,23 @@
         <v>289</v>
       </c>
       <c r="I27">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
       <c r="D28">
         <v>1.91</v>
       </c>
@@ -14247,10 +14398,14 @@
         <v>500</v>
       </c>
       <c r="I28">
+        <f t="shared" si="0"/>
+        <v>863</v>
+      </c>
+      <c r="J28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -14276,16 +14431,23 @@
         <v>234</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G29+H29</f>
+        <v>371</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
       <c r="D30">
         <v>2.6</v>
       </c>
@@ -14302,16 +14464,23 @@
         <v>472</v>
       </c>
       <c r="I30">
+        <f t="shared" si="0"/>
+        <v>707</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="D31">
         <v>1.94</v>
       </c>
@@ -14328,10 +14497,14 @@
         <v>243</v>
       </c>
       <c r="I31">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="J31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -14357,10 +14530,14 @@
         <v>33</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -14386,10 +14563,14 @@
         <v>164</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -14415,10 +14596,14 @@
         <v>42</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -14444,10 +14629,14 @@
         <v>63</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -14473,10 +14662,14 @@
         <v>115</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -14502,10 +14695,14 @@
         <v>141</v>
       </c>
       <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -14531,10 +14728,14 @@
         <v>177</v>
       </c>
       <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -14560,10 +14761,15 @@
         <v>31</v>
       </c>
       <c r="I39">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J39">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J39" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>